--- a/GameTable-Unity-Sample/Assets/GameTable-AutomaticConverter/Editor/Excel/Character.xlsx
+++ b/GameTable-Unity-Sample/Assets/GameTable-AutomaticConverter/Editor/Excel/Character.xlsx
@@ -493,7 +493,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>

--- a/GameTable-Unity-Sample/Assets/GameTable-AutomaticConverter/Editor/Excel/Character.xlsx
+++ b/GameTable-Unity-Sample/Assets/GameTable-AutomaticConverter/Editor/Excel/Character.xlsx
@@ -493,7 +493,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
